--- a/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/palestinian_authority/palestinian_authority_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0764</v>
+        <v>0.0977</v>
       </c>
       <c r="E2">
-        <v>0.0633</v>
+        <v>0.141</v>
       </c>
       <c r="G2">
-        <v>0.1054945054945055</v>
+        <v>0.06928294573643411</v>
       </c>
       <c r="H2">
-        <v>0.1054945054945055</v>
+        <v>0.06928294573643411</v>
       </c>
       <c r="I2">
-        <v>0.07024725274725274</v>
+        <v>0.08118217054263566</v>
       </c>
       <c r="J2">
-        <v>0.06061779178146477</v>
+        <v>0.05911875711054917</v>
       </c>
       <c r="K2">
-        <v>8.151</v>
+        <v>8.382</v>
       </c>
       <c r="L2">
-        <v>0.07464285714285714</v>
+        <v>0.08122093023255814</v>
       </c>
       <c r="M2">
-        <v>3.81</v>
+        <v>2.83</v>
       </c>
       <c r="N2">
-        <v>0.03699029126213593</v>
+        <v>0.02844221105527638</v>
       </c>
       <c r="O2">
-        <v>0.4674273095325727</v>
+        <v>0.3376282510140778</v>
       </c>
       <c r="P2">
-        <v>3.81</v>
+        <v>2.83</v>
       </c>
       <c r="Q2">
-        <v>0.03699029126213593</v>
+        <v>0.02844221105527638</v>
       </c>
       <c r="R2">
-        <v>0.4674273095325727</v>
+        <v>0.3376282510140778</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>28.78</v>
+        <v>21.78</v>
       </c>
       <c r="V2">
-        <v>0.2794174757281553</v>
+        <v>0.2188944723618091</v>
       </c>
       <c r="W2">
-        <v>0.08604651162790698</v>
+        <v>0.1</v>
       </c>
       <c r="X2">
-        <v>0.05645348448277399</v>
+        <v>0.0646619871920707</v>
       </c>
       <c r="Y2">
-        <v>0.029593027145133</v>
+        <v>0.03533801280792931</v>
       </c>
       <c r="Z2">
-        <v>2.441041689951939</v>
+        <v>1.769729396028398</v>
       </c>
       <c r="AA2">
-        <v>0.1315604745627275</v>
+        <v>0.01855287569573284</v>
       </c>
       <c r="AB2">
-        <v>0.05566441582434944</v>
+        <v>0.06426152501578791</v>
       </c>
       <c r="AC2">
-        <v>0.07505086759622479</v>
+        <v>-0.04912867635487167</v>
       </c>
       <c r="AD2">
-        <v>6.394</v>
+        <v>5.657</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.394</v>
+        <v>5.657</v>
       </c>
       <c r="AG2">
-        <v>-22.386</v>
+        <v>-16.123</v>
       </c>
       <c r="AH2">
-        <v>0.05844927509735452</v>
+        <v>0.05379575301691757</v>
       </c>
       <c r="AI2">
-        <v>0.07200937000247763</v>
+        <v>0.06138437666156667</v>
       </c>
       <c r="AJ2">
-        <v>-0.2776937008460068</v>
+        <v>-0.1933746716720439</v>
       </c>
       <c r="AK2">
-        <v>-0.3730129636418168</v>
+        <v>-0.2290947326541342</v>
       </c>
       <c r="AL2">
-        <v>0.3</v>
+        <v>0.513</v>
       </c>
       <c r="AM2">
-        <v>0.3</v>
+        <v>0.513</v>
       </c>
       <c r="AN2">
-        <v>0.7556133301819901</v>
+        <v>0.6115014593016971</v>
       </c>
       <c r="AO2">
-        <v>25.57</v>
+        <v>16.33138401559454</v>
       </c>
       <c r="AP2">
-        <v>-2.645473883242732</v>
+        <v>-1.742838612041941</v>
       </c>
       <c r="AQ2">
-        <v>25.57</v>
+        <v>16.33138401559454</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.053</v>
+        <v>0.0977</v>
       </c>
       <c r="E3">
-        <v>0.0633</v>
+        <v>0.588</v>
       </c>
       <c r="G3">
-        <v>0.1723981900452489</v>
+        <v>0.1206451612903226</v>
       </c>
       <c r="H3">
-        <v>0.1723981900452489</v>
+        <v>0.1206451612903226</v>
       </c>
       <c r="I3">
-        <v>0.1194570135746606</v>
+        <v>0.1696774193548387</v>
       </c>
       <c r="J3">
-        <v>0.09139664125846518</v>
+        <v>0.1244301075268817</v>
       </c>
       <c r="K3">
-        <v>5.64</v>
+        <v>6.5</v>
       </c>
       <c r="L3">
-        <v>0.1276018099547511</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="M3">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="N3">
-        <v>0.04806070826306914</v>
+        <v>0.04716666666666667</v>
       </c>
       <c r="O3">
-        <v>0.5053191489361702</v>
+        <v>0.4353846153846154</v>
       </c>
       <c r="P3">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q3">
-        <v>0.04806070826306914</v>
+        <v>0.04716666666666667</v>
       </c>
       <c r="R3">
-        <v>0.5053191489361702</v>
+        <v>0.4353846153846154</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>21.4</v>
+        <v>12.8</v>
       </c>
       <c r="V3">
-        <v>0.3608768971332209</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="W3">
-        <v>0.146875</v>
+        <v>0.1608910891089109</v>
       </c>
       <c r="X3">
-        <v>0.05608561012225333</v>
+        <v>0.06428749824935789</v>
       </c>
       <c r="Y3">
-        <v>0.09078938987774668</v>
+        <v>0.096603590859553</v>
       </c>
       <c r="Z3">
-        <v>2.388543636854905</v>
+        <v>2.283889980353635</v>
       </c>
       <c r="AA3">
-        <v>0.2183048659078175</v>
+        <v>0.2841846758349705</v>
       </c>
       <c r="AB3">
-        <v>0.05566441582434944</v>
+        <v>0.06401368863595674</v>
       </c>
       <c r="AC3">
-        <v>0.162640450083468</v>
+        <v>0.2201709871990138</v>
       </c>
       <c r="AD3">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AG3">
-        <v>-20.04</v>
+        <v>-11.63</v>
       </c>
       <c r="AH3">
-        <v>0.02242004615891856</v>
+        <v>0.01912702305051496</v>
       </c>
       <c r="AI3">
-        <v>0.03136531365313654</v>
+        <v>0.02642873277614637</v>
       </c>
       <c r="AJ3">
-        <v>-0.5104431991849211</v>
+        <v>-0.2404382881951623</v>
       </c>
       <c r="AK3">
-        <v>-0.9125683060109289</v>
+        <v>-0.3695583095011122</v>
       </c>
       <c r="AL3">
         <v>0.051</v>
@@ -830,16 +830,16 @@
         <v>0.051</v>
       </c>
       <c r="AN3">
-        <v>0.2402826855123675</v>
+        <v>0.1394517282479142</v>
       </c>
       <c r="AO3">
-        <v>103.5294117647059</v>
+        <v>154.7058823529412</v>
       </c>
       <c r="AP3">
-        <v>-3.540636042402827</v>
+        <v>-1.386174016686532</v>
       </c>
       <c r="AQ3">
-        <v>103.5294117647059</v>
+        <v>154.7058823529412</v>
       </c>
     </row>
     <row r="4">
@@ -859,28 +859,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.181</v>
+        <v>0.149</v>
       </c>
       <c r="E4">
-        <v>-0.00868</v>
+        <v>-0.427</v>
       </c>
       <c r="G4">
-        <v>0.0587378640776699</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="H4">
-        <v>0.0587378640776699</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="I4">
-        <v>0.124757281553398</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J4">
-        <v>0.1027576716366158</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>0.142</v>
       </c>
       <c r="L4">
-        <v>0.08980582524271845</v>
+        <v>0.008068181818181816</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -904,55 +904,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>5.4</v>
+        <v>5.52</v>
       </c>
       <c r="V4">
-        <v>0.3121387283236994</v>
+        <v>0.3515923566878981</v>
       </c>
       <c r="W4">
-        <v>0.08604651162790698</v>
+        <v>0.006200873362445415</v>
       </c>
       <c r="X4">
-        <v>0.06166571334672807</v>
+        <v>0.07411894598903186</v>
       </c>
       <c r="Y4">
-        <v>0.02438079828117891</v>
+        <v>-0.06791807262658645</v>
       </c>
       <c r="Z4">
-        <v>1.280298321939093</v>
+        <v>0.8163265306122451</v>
       </c>
       <c r="AA4">
-        <v>0.1315604745627275</v>
+        <v>0.01855287569573284</v>
       </c>
       <c r="AB4">
-        <v>0.05650960696650273</v>
+        <v>0.06768155205060451</v>
       </c>
       <c r="AC4">
-        <v>0.07505086759622479</v>
+        <v>-0.04912867635487167</v>
       </c>
       <c r="AD4">
-        <v>4.06</v>
+        <v>3.82</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.06</v>
+        <v>3.82</v>
       </c>
       <c r="AG4">
-        <v>-1.340000000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="AH4">
-        <v>0.1900749063670412</v>
+        <v>0.1956967213114754</v>
       </c>
       <c r="AI4">
-        <v>0.150593471810089</v>
+        <v>0.1373112868439971</v>
       </c>
       <c r="AJ4">
-        <v>-0.08395989974937347</v>
+        <v>-0.1214285714285714</v>
       </c>
       <c r="AK4">
-        <v>-0.06215213358070504</v>
+        <v>-0.07623318385650223</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.537878787878788</v>
+        <v>4.301801801801801</v>
       </c>
       <c r="AP4">
-        <v>-0.5075757575757578</v>
+        <v>-1.914414414414414</v>
       </c>
     </row>
     <row r="5">
@@ -984,121 +984,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0764</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="E5">
-        <v>0.221</v>
+        <v>0.141</v>
       </c>
       <c r="G5">
-        <v>0.06058558558558558</v>
+        <v>-0.02915601023017902</v>
       </c>
       <c r="H5">
-        <v>0.06058558558558558</v>
+        <v>-0.02915601023017902</v>
       </c>
       <c r="I5">
-        <v>-0.004031531531531531</v>
+        <v>-0.007979539641943733</v>
       </c>
       <c r="J5">
-        <v>-0.004031531531531531</v>
+        <v>-0.00759123049359246</v>
       </c>
       <c r="K5">
-        <v>0.661</v>
+        <v>1.74</v>
       </c>
       <c r="L5">
-        <v>0.01488738738738739</v>
+        <v>0.04450127877237851</v>
       </c>
       <c r="M5">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.03636363636363636</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>1.452344931921331</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03636363636363636</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>1.452344931921331</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>1.98</v>
+        <v>3.46</v>
       </c>
       <c r="V5">
-        <v>0.075</v>
+        <v>0.1453781512605042</v>
       </c>
       <c r="W5">
-        <v>0.03734463276836159</v>
+        <v>0.1</v>
       </c>
       <c r="X5">
-        <v>0.05645348448277399</v>
+        <v>0.0646619871920707</v>
       </c>
       <c r="Y5">
-        <v>-0.0191088517144124</v>
+        <v>0.03533801280792931</v>
       </c>
       <c r="Z5">
-        <v>4.37869822485207</v>
+        <v>2.385018909357082</v>
       </c>
       <c r="AA5">
-        <v>-0.01765285996055227</v>
+        <v>-0.01810522827250612</v>
       </c>
       <c r="AB5">
-        <v>0.0555186760873763</v>
+        <v>0.06426152501578791</v>
       </c>
       <c r="AC5">
-        <v>-0.07317153604792857</v>
+        <v>-0.08236675328829403</v>
       </c>
       <c r="AD5">
-        <v>0.974</v>
+        <v>0.667</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.974</v>
+        <v>0.667</v>
       </c>
       <c r="AG5">
-        <v>-1.006</v>
+        <v>-2.793</v>
       </c>
       <c r="AH5">
-        <v>0.03558120844597063</v>
+        <v>0.02726120897535456</v>
       </c>
       <c r="AI5">
-        <v>0.05272274548013424</v>
+        <v>0.03323865052075547</v>
       </c>
       <c r="AJ5">
-        <v>-0.03961565724186816</v>
+        <v>-0.1329556814395202</v>
       </c>
       <c r="AK5">
-        <v>-0.06099187583363647</v>
+        <v>-0.1681820918889625</v>
       </c>
       <c r="AL5">
-        <v>0.249</v>
+        <v>0.462</v>
       </c>
       <c r="AM5">
-        <v>0.249</v>
+        <v>0.462</v>
       </c>
       <c r="AN5">
-        <v>6.012345679012346</v>
+        <v>-24.70370370370371</v>
       </c>
       <c r="AO5">
-        <v>-0.7188755020080321</v>
+        <v>-0.6753246753246753</v>
       </c>
       <c r="AP5">
-        <v>-6.209876543209877</v>
+        <v>103.4444444444445</v>
       </c>
       <c r="AQ5">
-        <v>-0.7188755020080321</v>
+        <v>-0.6753246753246753</v>
       </c>
     </row>
   </sheetData>
